--- a/Tests/BOA_Logins.xlsx
+++ b/Tests/BOA_Logins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA08A013-EED4-411A-B95A-80B53F82BA8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915290ED-442E-4E96-A7BE-D9FFA92EC685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>User</t>
   </si>
@@ -95,10 +95,25 @@
     <t>North Hyde bye</t>
   </si>
   <si>
-    <t>04006</t>
-  </si>
-  <si>
     <t>040</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>3131 Marcus Avenue</t>
   </si>
 </sst>
 </file>
@@ -432,52 +447,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1234</v>
+        <v>6666</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5678</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>9876</v>
+        <v>1234</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5432</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +531,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="5">
         <v>9885679707</v>
@@ -592,6 +633,38 @@
         <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9885679707</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Tests/BOA_Logins.xlsx
+++ b/Tests/BOA_Logins.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915290ED-442E-4E96-A7BE-D9FFA92EC685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C51DD1-0B67-4DDB-A0F0-50812E8A7F8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5016" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_credentials" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
